--- a/registry_.xlsx
+++ b/registry_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\bot\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\bot\web-view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046E9F11-F38D-4B5D-9501-9EB0D54B28BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F4F0E0-1656-4F6F-A9A6-B16BFE10AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="2430" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Дата </t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Сотримент</t>
-  </si>
-  <si>
-    <t>Тип поездки</t>
   </si>
   <si>
     <t>Откуда</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -439,14 +436,13 @@
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,25 +464,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="D2"/>
-      <c r="G2"/>
+      <c r="F2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 A5:K200 I3:K3 I2:K2 I4:K4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 A5:D200 H3:J3 H2:J2 H4:J4 E1:J1 E5:J200" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/registry_.xlsx
+++ b/registry_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\bot\web-view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F4F0E0-1656-4F6F-A9A6-B16BFE10AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43674D8A-B535-4E2C-A008-8AC3D344DC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Дата </t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Количество рейсов</t>
+  </si>
+  <si>
+    <t>Тип поездки</t>
   </si>
 </sst>
 </file>
@@ -424,62 +427,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="D2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A5:D200 H3:J3 H2:J2 H4:J4 E1:J1 E5:J200" numberStoredAsText="1"/>
+    <ignoredError sqref="A5:D200 H3:J3 H2:J2 H4:J4 I1:J1 E5:J200" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>